--- a/HNM ELISA Analysis.xlsx
+++ b/HNM ELISA Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7962E121-6AC8-43BB-960B-A14A7CF866A1}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6E20F6-BC5F-4EE4-9F46-0175CB199D1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19035" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,11 +1330,23 @@
       <c r="G20" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4">
+        <v>3.1635866539999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.6576479425152002</v>
+      </c>
+      <c r="J20">
+        <f>Table1[[#This Row],[Uncorrected CK-18 fragments (ng/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0.52397741039250201</v>
+      </c>
       <c r="K20" s="5">
         <v>875.47700819199997</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>276.73558651698625</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1349,11 +1361,23 @@
       <c r="G21" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4">
+        <v>2.9644318680000001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.4700011062042002</v>
+      </c>
+      <c r="J21">
+        <f>Table1[[#This Row],[Uncorrected CK-18 fragments (ng/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0.49587953836023196</v>
+      </c>
       <c r="K21" s="5">
         <v>933.67797814528001</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>314.96017440103969</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1368,11 +1392,23 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4">
+        <v>3.0041736600000002</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.1161436522202002</v>
+      </c>
+      <c r="J22">
+        <f>Table1[[#This Row],[Uncorrected CK-18 fragments (ng/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0.70440124031318485</v>
+      </c>
       <c r="K22" s="5">
         <v>769.05010920000007</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>255.99389257676935</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HNM ELISA Analysis.xlsx
+++ b/HNM ELISA Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6E20F6-BC5F-4EE4-9F46-0175CB199D1C}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0102F126-F59F-4ACA-9CC1-66F41C23CE44}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19035" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Round</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve"> IL-8 (pg/mg of protein)</t>
+  </si>
+  <si>
+    <t>Uncorrected IL-1B (pg/mL)</t>
+  </si>
+  <si>
+    <t>IL-1B (pg/mg of protein)</t>
   </si>
 </sst>
 </file>
@@ -251,12 +257,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0">
-  <autoFilter ref="A1:L22" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:N22" totalsRowShown="0">
+  <autoFilter ref="A1:N22" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="F1:F19"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DA512A4B-BD7E-4132-917E-225A034F5220}" name="Round"/>
     <tableColumn id="2" xr3:uid="{A7ED4474-7BD1-44A8-88DF-F0DF740F631C}" name="Condition"/>
     <tableColumn id="3" xr3:uid="{24BFD542-A364-491A-9071-8A61679D1F8D}" name="FA_Amount"/>
@@ -272,6 +278,10 @@
     <tableColumn id="13" xr3:uid="{4A6D4AE7-B32D-4965-AC2C-FE28874CFBFE}" name="Uncorrected IL-8 (pg/mL)" dataDxfId="1" dataCellStyle="Normal 2"/>
     <tableColumn id="16" xr3:uid="{02C4B157-4D58-4D9F-ACF9-BF2DAACC30B3}" name=" IL-8 (pg/mg of protein)" dataDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{ABB5B1AB-21F9-4F4E-9E0D-0EC005F96A2E}" name="Uncorrected IL-1B (pg/mL)"/>
+    <tableColumn id="11" xr3:uid="{08B59169-B58C-4746-9947-6718DA9F0B63}" name="IL-1B (pg/mg of protein)">
+      <calculatedColumnFormula>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -541,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +569,7 @@
     <col min="11" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +606,14 @@
       <c r="L1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -636,8 +652,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>200.3695404262364</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>135.51870412025997</v>
+      </c>
+      <c r="N2">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>42.231313890371943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -676,8 +699,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>316.82465219241277</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -716,8 +746,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>276.72209018751533</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>49.686277755140004</v>
+      </c>
+      <c r="N4">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>17.880036616200162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -756,8 +793,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>162.47052938441681</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>161.42306463743995</v>
+      </c>
+      <c r="N5">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>52.286026846250657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -796,8 +840,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>320.38791704107098</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>233.25608462503993</v>
+      </c>
+      <c r="N6">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>72.383285441717746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -836,8 +887,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>218.31940356761072</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>18.854520741860028</v>
+      </c>
+      <c r="N7">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>5.3737765903071715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -876,8 +934,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>119.12771371051345</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -916,8 +981,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>188.88818331303708</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>34.997946748160039</v>
+      </c>
+      <c r="N9">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>9.821377055393814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -956,8 +1028,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>167.35942587163379</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>45.031079512639998</v>
+      </c>
+      <c r="N10">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>15.390280641945683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -996,8 +1075,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>106.65200379168968</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>48.970218969860021</v>
+      </c>
+      <c r="N11">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>12.484627773547919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1036,8 +1122,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>159.24555011885323</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>91.377359719139974</v>
+      </c>
+      <c r="N12">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>24.149421694036061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1076,8 +1169,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>167.19345689822686</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>460.63975564415989</v>
+      </c>
+      <c r="N13">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>131.28814936938051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1116,8 +1216,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>174.48268935786734</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1156,8 +1263,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>193.85921956806999</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1196,8 +1310,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>143.19438100195291</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>157.99630096345993</v>
+      </c>
+      <c r="N16">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>52.551481387915814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1236,8 +1357,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>141.92227820739197</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>43.240104996739994</v>
+      </c>
+      <c r="N17">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>12.77161814777444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1276,8 +1404,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>163.63261841151657</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1316,8 +1451,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>158.75123724422627</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>42.76246359785997</v>
+      </c>
+      <c r="N19">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>14.957187890668484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1347,8 +1489,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>276.73558651698625</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>40.612826183460008</v>
+      </c>
+      <c r="N20">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>12.837589301405622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1378,8 +1527,15 @@
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>314.96017440103969</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>36.67075699943998</v>
+      </c>
+      <c r="N21">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>12.370247869511832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1408,6 +1564,13 @@
       <c r="L22" s="3">
         <f>Table1[[#This Row],[Uncorrected IL-8 (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>255.99389257676935</v>
+      </c>
+      <c r="M22">
+        <v>110.62177669146004</v>
+      </c>
+      <c r="N22">
+        <f>Table1[[#This Row],[Uncorrected IL-1B (pg/mL)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>36.822697091172827</v>
       </c>
     </row>
   </sheetData>
